--- a/exceldesign/База комплектующих/СтальхолдингM.xlsx
+++ b/exceldesign/База комплектующих/СтальхолдингM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel_Khrapkin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Tekla Structures\2016\environments\common\exceldesign\База комплектующих\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Уголок равнопол." sheetId="1" r:id="rId1"/>
-    <sheet name="Полоса" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист г.к" sheetId="3" r:id="rId3"/>
+    <sheet name="Уголок неравнополочный" sheetId="4" r:id="rId2"/>
+    <sheet name="Полоса" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист г.к" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="370">
   <si>
     <t>Наименование</t>
   </si>
@@ -1079,18 +1080,76 @@
   </si>
   <si>
     <t>PL12x100</t>
+  </si>
+  <si>
+    <t>Цена руб./тн</t>
+  </si>
+  <si>
+    <t>Уголок 63x40x5</t>
+  </si>
+  <si>
+    <t>41 990</t>
+  </si>
+  <si>
+    <t>Уголок 63x40x6</t>
+  </si>
+  <si>
+    <t>39 990</t>
+  </si>
+  <si>
+    <t>Уголок 75x50x5</t>
+  </si>
+  <si>
+    <t>Уголок 75x50x6</t>
+  </si>
+  <si>
+    <t>Уголок 100x63x6</t>
+  </si>
+  <si>
+    <t>37 990</t>
+  </si>
+  <si>
+    <t>Уголок 100x63x8</t>
+  </si>
+  <si>
+    <t>37 790</t>
+  </si>
+  <si>
+    <t>Уголок 125x80x10</t>
+  </si>
+  <si>
+    <t>48 990</t>
+  </si>
+  <si>
+    <t>Уголок 160x100x10</t>
+  </si>
+  <si>
+    <t>49 000</t>
+  </si>
+  <si>
+    <t>40 690</t>
+  </si>
+  <si>
+    <t>СТАЛЬХОЛДИНГ</t>
+  </si>
+  <si>
+    <t>Уголок неравнополочный</t>
+  </si>
+  <si>
+    <t>ГОСТ 8510-93/86</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,8 +1188,51 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF373636"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1143,8 +1245,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1170,12 +1302,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1226,8 +1374,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
@@ -1242,6 +1428,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr=" » Уголок "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="38100"/>
+          <a:ext cx="1143000" cy="700734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4" descr="Металлический уголок"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5572125" y="0"/>
+          <a:ext cx="1085850" cy="840813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1544,7 +1845,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,9 +2970,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18">
+        <v>42889</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="29" t="str">
+        <f>C7</f>
+        <v>Уголок 63x40x5</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="22">
+        <v>63</v>
+      </c>
+      <c r="E7" s="22">
+        <v>12000</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="29" t="str">
+        <f t="shared" ref="B8:B16" si="0">C8</f>
+        <v>Уголок 63x40x6</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="24">
+        <v>63</v>
+      </c>
+      <c r="E8" s="24">
+        <v>12000</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Уголок 75x50x5</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="22">
+        <v>75</v>
+      </c>
+      <c r="E9" s="22">
+        <v>12000</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Уголок 75x50x6</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="24">
+        <v>75</v>
+      </c>
+      <c r="E10" s="24">
+        <v>12000</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Уголок 100x63x6</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="22">
+        <v>100</v>
+      </c>
+      <c r="E11" s="22">
+        <v>12000</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Уголок 100x63x8</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="24">
+        <v>100</v>
+      </c>
+      <c r="E12" s="24">
+        <v>12000</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Уголок 125x80x10</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="26">
+        <v>125</v>
+      </c>
+      <c r="E13" s="26">
+        <v>12000</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Уголок 160x100x10</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="24">
+        <v>160</v>
+      </c>
+      <c r="E14" s="24">
+        <v>12000</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Уголок 160x100x10</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="22">
+        <v>160</v>
+      </c>
+      <c r="E15" s="22">
+        <v>9000</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Уголок 160x100x10</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="24">
+        <v>160</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
@@ -4585,11 +5169,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/exceldesign/База комплектующих/СтальхолдингM.xlsx
+++ b/exceldesign/База комплектующих/СтальхолдингM.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Tekla Structures\2016\environments\common\exceldesign\База комплектующих\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Tekla Structures\2016i\Environments\common\exceldesign\База комплектующих\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Уголок равнопол." sheetId="1" r:id="rId1"/>
     <sheet name="Уголок неравнополочный" sheetId="4" r:id="rId2"/>
     <sheet name="Полоса" sheetId="2" r:id="rId3"/>
     <sheet name="Лист г.к" sheetId="3" r:id="rId4"/>
+    <sheet name="Балка" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="570">
   <si>
     <t>Наименование</t>
   </si>
@@ -1137,6 +1138,606 @@
   </si>
   <si>
     <t>ГОСТ 8510-93/86</t>
+  </si>
+  <si>
+    <t>Балка стальная двутавровая</t>
+  </si>
+  <si>
+    <t>ГОСТ  8239-89; ГОСТ 26020-83; ГОСТ 19425-74 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка двутавровая ст3сп5</t>
+  </si>
+  <si>
+    <t>Балка двутавровая ГОСТ 8239-89; ГОСТ 26020-83; ГОСТ 19425-74 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 10 (двутавр 10) ст3сп/пс5 ГОСТ 535-88; 8239-89</t>
+  </si>
+  <si>
+    <t>тонна</t>
+  </si>
+  <si>
+    <t>Балка 12 (двутавр 12) ст3сп/пс5 ГОСТ 535-88; 8239-89</t>
+  </si>
+  <si>
+    <t>Балка 14 (двутавр 14) ст3сп/пс5 ГОСТ 535-88; 8239-89</t>
+  </si>
+  <si>
+    <t>Балка 16 (двутавр 16) ст3сп/пс5 ГОСТ 535-88; 8239-89</t>
+  </si>
+  <si>
+    <t>Балка 18 (двутавр 18) ст3сп/пс5 ГОСТ 535-88; 8239-89</t>
+  </si>
+  <si>
+    <t>Балка 20 (двутавр 20) ст3сп/пс5 ГОСТ 535-88; 8239-89</t>
+  </si>
+  <si>
+    <t>Балка 24 М (двутавр 24М) ст3сп/пс5 ГОСТ 535-88; 19425-74</t>
+  </si>
+  <si>
+    <t>Балка 30 (двутавр 30) ст3сп/пс5 ГОСТ 535-88; 8239-89</t>
+  </si>
+  <si>
+    <t>Балка 30 М (двутавр 30М) ст3сп/пс5 ГОСТ 535-88; 19425-74</t>
+  </si>
+  <si>
+    <t>Балка 36 (двутавр 36) ст3сп/пс5 ГОСТ 535-88; 8239-89</t>
+  </si>
+  <si>
+    <t>Балка 36 М (двутавр 36М) ст3сп/пс5 ГОСТ 535-88; 19425-74</t>
+  </si>
+  <si>
+    <t>Балка 45 (двутавр 45) ст3сп/пс5 ГОСТ 535-88; 8239-89 (под заказ)</t>
+  </si>
+  <si>
+    <t>Балка 45 М (двутавр 45 М) ст3сп/пс5 ГОСТ 535-88;</t>
+  </si>
+  <si>
+    <t>Балка двутавровая СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 16 Б1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 18 Б1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 20 Б1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 20 К1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 20 К2 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 20 Ш1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 24 М СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 25 Б1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 25 Б2 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 25 К1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 25 К2 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 25 К3 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 25 К4 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 25 Ш1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 30 Б1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 30 Б2 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 30 К1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 30 К2 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 30 К3 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 30 К4 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 30 Ш1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 30 Ш2 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 35 Б1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 35 Б2 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 35 К1 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 35 К2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 35 Ш1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 35 Ш2 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 36 М СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 40 Б1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 40 Б2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 40 К1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 40 К2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 40 К3 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 40 К4 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 40 К5 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 40 Ш1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 40 Ш2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 45 Б1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 45 М СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 45 Б2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 45 Ш1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 50 Б1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 50 Б2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 50 Ш1 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 50 Ш2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 50 Ш3 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 70 Ш4 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 70 Ш2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 70 Ш1 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 60 Ш4 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 60 Ш3 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 60 Ш2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 60 Ш1 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 50 Ш4 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 55 Б1 СТО АСЧМ 20-93 ст3сп/пс5</t>
+  </si>
+  <si>
+    <t>Балка 55 Б2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 60 Б1 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка 60 Б2 СТО АСЧМ 20-93 ст3сп/пс5 (на заказ)</t>
+  </si>
+  <si>
+    <t>Балка двутавровая 09Г2С</t>
+  </si>
+  <si>
+    <t>Двутавр 09Г2С</t>
+  </si>
+  <si>
+    <t>Балка 20 К1 (двутавр 20 К1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 20 К2 (двутавр 20 К2) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 25 Б1 (двутавр 25 Б1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 25 К1 (двутавр 25 К1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 25 К2 (двутавр 25 К2) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 20 Б1 (двутавр 30 Б1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 30 Б1 (двутавр 30 Б1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 30 Б2 (двутавр 30 Б2) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 40 К1 (двутавр 40 К1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 30 К1 (двутавр 30 К1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 30 К2 (двутавр 30 К2) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 35 Ш2 (двутавр 35 Ш2) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 35 Ш1 (двутавр 35 Ш1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 30 Ш1 (двутавр 30 Ш1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 35 Б2 (двутавр 35 Б2) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 40 Б1 (двутавр 40 Б1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 40 Б2 (двутавр 40 Б2) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 45 Б1 (двутавр 45 Б1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 45 Б2 (двутавр 45 Б2) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 50 Б1 (двутавр 50 Б1) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка 50 Б2 (двутавр 50 Б2) 09Г2С-12 c345</t>
+  </si>
+  <si>
+    <t>Балка сварная</t>
+  </si>
+  <si>
+    <t>Балка б/у</t>
+  </si>
+  <si>
+    <t>Балка (двутавр) б/у стальная</t>
+  </si>
+  <si>
+    <t>Балка (двутавр) 25 Б1 L-5400 мм</t>
+  </si>
+  <si>
+    <t>Балка (двутавр) 45 Б2 L-5400 мм</t>
+  </si>
+  <si>
+    <t>Балка сварная 55-60 L - 9154 мм</t>
+  </si>
+  <si>
+    <t>Единица</t>
+  </si>
+  <si>
+    <t>Цена руб/тн</t>
+  </si>
+  <si>
+    <t>Балка 10</t>
+  </si>
+  <si>
+    <t>Балка 12</t>
+  </si>
+  <si>
+    <t>Балка 14</t>
+  </si>
+  <si>
+    <t>Балка 16</t>
+  </si>
+  <si>
+    <t>Балка 18</t>
+  </si>
+  <si>
+    <t>Балка 20</t>
+  </si>
+  <si>
+    <t>Балка 30</t>
+  </si>
+  <si>
+    <t>Балка 36</t>
+  </si>
+  <si>
+    <t>Балка 24М</t>
+  </si>
+  <si>
+    <t>Балка 30М</t>
+  </si>
+  <si>
+    <t>Балка 36М</t>
+  </si>
+  <si>
+    <t>Балка 45</t>
+  </si>
+  <si>
+    <t>Балка 45М</t>
+  </si>
+  <si>
+    <t>Балка 16Б1</t>
+  </si>
+  <si>
+    <t>Балка 20Б1</t>
+  </si>
+  <si>
+    <t>Балка 20К1</t>
+  </si>
+  <si>
+    <t>Балка 20К2</t>
+  </si>
+  <si>
+    <t>Балка 20Ш1</t>
+  </si>
+  <si>
+    <t>Балка 25Б1</t>
+  </si>
+  <si>
+    <t>Балка 25Б2</t>
+  </si>
+  <si>
+    <t>Балка 25К1</t>
+  </si>
+  <si>
+    <t>Балка 25К2</t>
+  </si>
+  <si>
+    <t>Балка 25К3</t>
+  </si>
+  <si>
+    <t>Балка 25К4</t>
+  </si>
+  <si>
+    <t>Балка 25Ш1</t>
+  </si>
+  <si>
+    <t>Балка30Б1</t>
+  </si>
+  <si>
+    <t>Балка30Б2</t>
+  </si>
+  <si>
+    <t>Балка30К1</t>
+  </si>
+  <si>
+    <t>Балка30К2</t>
+  </si>
+  <si>
+    <t>Балка30К3</t>
+  </si>
+  <si>
+    <t>Балка30К4</t>
+  </si>
+  <si>
+    <t>Балка30Ш1</t>
+  </si>
+  <si>
+    <t>Балка30Ш2</t>
+  </si>
+  <si>
+    <t>Балка35Б1</t>
+  </si>
+  <si>
+    <t>Балка35Б2</t>
+  </si>
+  <si>
+    <t>Балка35К1</t>
+  </si>
+  <si>
+    <t>Балка35К2</t>
+  </si>
+  <si>
+    <t>Балка35Ш1</t>
+  </si>
+  <si>
+    <t>Балка35Ш2</t>
+  </si>
+  <si>
+    <t>Балка36М</t>
+  </si>
+  <si>
+    <t>Балка40Б1</t>
+  </si>
+  <si>
+    <t>Балка40Б2</t>
+  </si>
+  <si>
+    <t>Балка40К1</t>
+  </si>
+  <si>
+    <t>Балка40К2</t>
+  </si>
+  <si>
+    <t>Балка40К3</t>
+  </si>
+  <si>
+    <t>Балка40К4</t>
+  </si>
+  <si>
+    <t>Балка40К5</t>
+  </si>
+  <si>
+    <t>Балка40Ш1</t>
+  </si>
+  <si>
+    <t>Балка40Ш2</t>
+  </si>
+  <si>
+    <t>Балка45Б1</t>
+  </si>
+  <si>
+    <t>Балка45М</t>
+  </si>
+  <si>
+    <t>Балка45Б2</t>
+  </si>
+  <si>
+    <t>Балка45Ш1</t>
+  </si>
+  <si>
+    <t>Балка50Б1</t>
+  </si>
+  <si>
+    <t>Балка50Б2</t>
+  </si>
+  <si>
+    <t>Балка50Ш1</t>
+  </si>
+  <si>
+    <t>Балка50Ш2</t>
+  </si>
+  <si>
+    <t>Балка50Ш3</t>
+  </si>
+  <si>
+    <t>Балка70Ш4</t>
+  </si>
+  <si>
+    <t>Балка70Ш2</t>
+  </si>
+  <si>
+    <t>Балка70Ш1</t>
+  </si>
+  <si>
+    <t>Балка60Ш4</t>
+  </si>
+  <si>
+    <t>Балка60Ш3</t>
+  </si>
+  <si>
+    <t>Балка60Ш2</t>
+  </si>
+  <si>
+    <t>Балка60Ш1</t>
+  </si>
+  <si>
+    <t>Балка50Ш4</t>
+  </si>
+  <si>
+    <t>Балка55Б1</t>
+  </si>
+  <si>
+    <t>Балка55Б2</t>
+  </si>
+  <si>
+    <t>Балка60Б1</t>
+  </si>
+  <si>
+    <t>Балка60Б2</t>
+  </si>
+  <si>
+    <t>Балка 45Б1</t>
+  </si>
+  <si>
+    <t>Балка 45Б2</t>
+  </si>
+  <si>
+    <t>Балка 55-60</t>
+  </si>
+  <si>
+    <t>Балка 20 К1</t>
+  </si>
+  <si>
+    <t>Балка 20 К2</t>
+  </si>
+  <si>
+    <t>Балка 25 Б1</t>
+  </si>
+  <si>
+    <t>Балка 25 К2</t>
+  </si>
+  <si>
+    <t>Балка 30Б1</t>
+  </si>
+  <si>
+    <t>Балка 30Б2</t>
+  </si>
+  <si>
+    <t>Балка 40К1</t>
+  </si>
+  <si>
+    <t>Балка 30К1</t>
+  </si>
+  <si>
+    <t>Балка 30К2</t>
+  </si>
+  <si>
+    <t>Балка 35Ш2</t>
+  </si>
+  <si>
+    <t>Балка 35Ш1</t>
+  </si>
+  <si>
+    <t>Балка 30Ш1</t>
+  </si>
+  <si>
+    <t>Балка 35Б2</t>
+  </si>
+  <si>
+    <t>Балка 40Б1</t>
+  </si>
+  <si>
+    <t>Балка 40Б2</t>
+  </si>
+  <si>
+    <t>Балка 50Б1</t>
+  </si>
+  <si>
+    <t>Балка 50Б2</t>
+  </si>
+  <si>
+    <t>С235</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1750,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,8 +1832,31 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,6 +1896,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD43C40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1953,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1411,6 +2041,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="2"/>
@@ -1447,7 +2089,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr=" » Уголок "/>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr=" » Уголок ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1502,7 +2150,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4" descr="Металлический уголок"/>
+        <xdr:cNvPr id="5" name="Рисунок 4" descr="Металлический уголок">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1524,6 +2178,72 @@
         <a:xfrm>
           <a:off x="5572125" y="0"/>
           <a:ext cx="1085850" cy="840813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr=" » Уголок ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F94EDF-10CF-4532-AE76-5B43AD0D58CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="190500"/>
+          <a:ext cx="1143000" cy="700734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2972,7 +3692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -6355,4 +7075,1773 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18">
+        <v>42906</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="34">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="34">
+        <v>55800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="34">
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="34">
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" s="34">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" s="34">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="34">
+        <v>55800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" s="34">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" s="34">
+        <v>66800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="34">
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E18" s="34">
+        <v>56800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E19" s="34">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E20" s="34">
+        <v>57200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E22" s="34">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="34">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E24" s="34">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E25" s="34">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="34">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E27" s="34">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E28" s="34">
+        <v>55800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="34">
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E30" s="34">
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E31" s="34">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E32" s="34">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E33" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E34" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E35" s="34">
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E36" s="34">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E37" s="34">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E38" s="34">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E39" s="34">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E40" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E42" s="34">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43" s="34">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E44" s="34">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E45" s="34">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E46" s="34">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E47" s="34">
+        <v>52900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E48" s="34">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E49" s="34">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E50" s="34">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E51" s="34">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E52" s="34">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E53" s="34">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E54" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E55" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E56" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E57" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E58" s="34">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E59" s="34">
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E60" s="34">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E61" s="34">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E62" s="34">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E63" s="34">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E64" s="34">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E65" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E66" s="34">
+        <v>51100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E67" s="34">
+        <v>51100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E68" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E69" s="34">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E70" s="34">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E71" s="34">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E72" s="34">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E73" s="34">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E74" s="34">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E75" s="34">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E77" s="34">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E78" s="34">
+        <v>51800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E79" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E80" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E83" s="34">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E84" s="34">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E85" s="34">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E86" s="34">
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E87" s="34">
+        <v>62600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E88" s="34">
+        <v>55400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E89" s="34">
+        <v>62200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E90" s="34">
+        <v>62200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E91" s="34">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E92" s="34">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E93" s="34">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E94" s="34">
+        <v>65200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E95" s="34">
+        <v>65200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E96" s="34">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E97" s="34">
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E98" s="34">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E99" s="34">
+        <v>54200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E100" s="34">
+        <v>53800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E101" s="34">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E102" s="34">
+        <v>54800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E103" s="34">
+        <v>54800</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="30"/>
+      <c r="B107" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E107" s="34">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="30"/>
+      <c r="B108" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E108" s="34">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="30"/>
+      <c r="B109" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E109" s="34">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C104:E104"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>